--- a/jdd/journal-empire_1808-1814_complet.xlsx
+++ b/jdd/journal-empire_1808-1814_complet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1808-08-to-1808-12" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="518">
   <si>
     <t>date</t>
   </si>
@@ -1578,6 +1578,9 @@
   </si>
   <si>
     <t>http://gallica.bnf.fr/ark:/12148/bpt6k4208574</t>
+  </si>
+  <si>
+    <t>floria 2016-06-09</t>
   </si>
 </sst>
 </file>
@@ -5418,8 +5421,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7155,8 +7158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7190,7 +7193,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>327</v>
       </c>
@@ -7213,10 +7216,10 @@
         <v>183</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>328</v>
       </c>
@@ -7239,10 +7242,10 @@
         <v>183</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>329</v>
       </c>
@@ -7265,7 +7268,7 @@
         <v>183</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>181</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7291,10 +7294,10 @@
         <v>183</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>332</v>
       </c>
@@ -7317,7 +7320,7 @@
         <v>183</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>181</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7343,10 +7346,10 @@
         <v>183</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>335</v>
       </c>
@@ -7369,10 +7372,10 @@
         <v>183</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>336</v>
       </c>
@@ -7395,10 +7398,10 @@
         <v>183</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>336</v>
       </c>
@@ -7421,7 +7424,7 @@
         <v>183</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>181</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7447,10 +7450,10 @@
         <v>183</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>340</v>
       </c>
@@ -7473,10 +7476,10 @@
         <v>183</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>341</v>
       </c>
@@ -7499,10 +7502,10 @@
         <v>183</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>342</v>
       </c>
@@ -7525,10 +7528,10 @@
         <v>183</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>343</v>
       </c>
@@ -7551,7 +7554,7 @@
         <v>183</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>181</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7577,10 +7580,10 @@
         <v>183</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>347</v>
       </c>
@@ -7603,7 +7606,7 @@
         <v>183</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>181</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -7629,10 +7632,10 @@
         <v>183</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>350</v>
       </c>
@@ -7655,10 +7658,10 @@
         <v>183</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>351</v>
       </c>
@@ -7681,10 +7684,10 @@
         <v>183</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
@@ -7707,10 +7710,10 @@
         <v>184</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>352</v>
       </c>
@@ -7733,7 +7736,7 @@
         <v>183</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>181</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7759,10 +7762,10 @@
         <v>183</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>355</v>
       </c>
@@ -7785,10 +7788,10 @@
         <v>183</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>358</v>
       </c>
@@ -7811,10 +7814,10 @@
         <v>183</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>359</v>
       </c>
@@ -7837,10 +7840,10 @@
         <v>183</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>361</v>
       </c>
@@ -7863,10 +7866,10 @@
         <v>183</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>363</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>183</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>181</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -9459,8 +9462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/jdd/journal-empire_1808-1814_complet.xlsx
+++ b/jdd/journal-empire_1808-1814_complet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elodiebenard\ownCloud\moliere\jdd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18240" windowHeight="7245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1808-08-to-1808-12" sheetId="2" r:id="rId1"/>
@@ -1877,7 +1882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1912,7 +1917,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2125,16 +2130,16 @@
   <dimension ref="A1:H1048565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H32"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2165,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -2180,7 +2185,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>52</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>53</v>
       </c>
@@ -2220,7 +2225,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>54</v>
       </c>
@@ -2240,7 +2245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>55</v>
       </c>
@@ -2260,7 +2265,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -2280,7 +2285,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -2300,7 +2305,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>56</v>
       </c>
@@ -2320,7 +2325,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -2340,7 +2345,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2360,7 +2365,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
@@ -2380,7 +2385,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>58</v>
       </c>
@@ -2400,7 +2405,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>59</v>
       </c>
@@ -2440,7 +2445,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -2460,7 +2465,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
@@ -2480,7 +2485,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>61</v>
       </c>
@@ -2500,7 +2505,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
@@ -2520,7 +2525,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
@@ -2540,7 +2545,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>62</v>
       </c>
@@ -2560,7 +2565,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
@@ -2580,7 +2585,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>77</v>
       </c>
@@ -2606,7 +2611,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>83</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
@@ -2684,7 +2689,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>89</v>
       </c>
@@ -2710,7 +2715,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
@@ -2736,7 +2741,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>96</v>
       </c>
@@ -2762,7 +2767,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>98</v>
       </c>
@@ -2788,7 +2793,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>100</v>
       </c>
@@ -2814,7 +2819,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>104</v>
       </c>
@@ -2840,7 +2845,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>30</v>
       </c>
@@ -2858,37 +2863,37 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1048555" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048555" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048555" s="5"/>
     </row>
-    <row r="1048556" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048556" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048556" s="5"/>
     </row>
-    <row r="1048557" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048557" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048557" s="5"/>
     </row>
-    <row r="1048558" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048558" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048558" s="5"/>
     </row>
-    <row r="1048559" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048559" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048559" s="5"/>
     </row>
-    <row r="1048560" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048560" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048560" s="5"/>
     </row>
-    <row r="1048561" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048561" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048561" s="5"/>
     </row>
-    <row r="1048562" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048562" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048562" s="5"/>
     </row>
-    <row r="1048563" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048563" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048563" s="5"/>
     </row>
-    <row r="1048564" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048564" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048564" s="5"/>
     </row>
-    <row r="1048565" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048565" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048565" s="5"/>
     </row>
   </sheetData>
@@ -2929,16 +2934,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2964,7 +2969,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -2984,7 +2989,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -3004,7 +3009,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -3024,7 +3029,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
@@ -3044,7 +3049,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -3064,7 +3069,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -3084,7 +3089,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -3104,7 +3109,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
@@ -3124,7 +3129,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>105</v>
       </c>
@@ -3150,7 +3155,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
@@ -3170,7 +3175,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
@@ -3190,7 +3195,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>107</v>
       </c>
@@ -3236,7 +3241,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>108</v>
       </c>
@@ -3262,7 +3267,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
@@ -3288,7 +3293,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
@@ -3308,7 +3313,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -3348,7 +3353,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -3370,7 +3375,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>44</v>
       </c>
@@ -3396,7 +3401,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>110</v>
       </c>
@@ -3420,7 +3425,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>112</v>
       </c>
@@ -3446,7 +3451,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
@@ -3468,7 +3473,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>47</v>
       </c>
@@ -3488,7 +3493,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>48</v>
       </c>
@@ -3510,7 +3515,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
@@ -3532,7 +3537,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>50</v>
       </c>
@@ -3554,7 +3559,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -3580,7 +3585,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>51</v>
       </c>
@@ -3602,73 +3607,73 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="17"/>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="17"/>
     </row>
-    <row r="33" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="17"/>
     </row>
-    <row r="34" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="17"/>
     </row>
-    <row r="35" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D36" s="17"/>
     </row>
-    <row r="37" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="17"/>
     </row>
-    <row r="40" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D40" s="17"/>
     </row>
-    <row r="41" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" s="17"/>
     </row>
-    <row r="42" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D47" s="17"/>
     </row>
-    <row r="48" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D48" s="17"/>
     </row>
-    <row r="49" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="17"/>
     </row>
-    <row r="53" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="17"/>
     </row>
   </sheetData>
@@ -3711,13 +3716,13 @@
       <selection activeCell="A29" sqref="A29:H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>235</v>
       </c>
@@ -3770,7 +3775,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>238</v>
       </c>
@@ -3797,7 +3802,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -3824,7 +3829,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
@@ -3851,7 +3856,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>242</v>
       </c>
@@ -3878,7 +3883,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>245</v>
       </c>
@@ -3905,7 +3910,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -3932,7 +3937,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>248</v>
       </c>
@@ -3959,7 +3964,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>250</v>
       </c>
@@ -3986,7 +3991,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>253</v>
       </c>
@@ -4013,7 +4018,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>256</v>
       </c>
@@ -4040,7 +4045,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>259</v>
       </c>
@@ -4067,7 +4072,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>262</v>
       </c>
@@ -4093,7 +4098,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>265</v>
       </c>
@@ -4119,7 +4124,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>268</v>
       </c>
@@ -4145,7 +4150,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>270</v>
       </c>
@@ -4171,7 +4176,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>273</v>
       </c>
@@ -4197,7 +4202,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -4223,7 +4228,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>275</v>
       </c>
@@ -4249,7 +4254,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>278</v>
       </c>
@@ -4275,7 +4280,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>281</v>
       </c>
@@ -4301,7 +4306,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>284</v>
       </c>
@@ -4327,7 +4332,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>287</v>
       </c>
@@ -4353,7 +4358,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>290</v>
       </c>
@@ -4379,7 +4384,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>293</v>
       </c>
@@ -4405,7 +4410,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>296</v>
       </c>
@@ -4431,7 +4436,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>299</v>
       </c>
@@ -4457,7 +4462,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>302</v>
       </c>
@@ -4483,7 +4488,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>305</v>
       </c>
@@ -4509,7 +4514,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>308</v>
       </c>
@@ -4535,7 +4540,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>310</v>
       </c>
@@ -4561,7 +4566,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>313</v>
       </c>
@@ -4587,7 +4592,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>367</v>
       </c>
@@ -4613,7 +4618,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>317</v>
       </c>
@@ -4639,7 +4644,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>320</v>
       </c>
@@ -4665,7 +4670,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>323</v>
       </c>
@@ -4746,12 +4751,12 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4777,7 +4782,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>126</v>
       </c>
@@ -4803,7 +4808,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>127</v>
       </c>
@@ -4829,7 +4834,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>128</v>
       </c>
@@ -4855,7 +4860,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -4881,7 +4886,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>131</v>
       </c>
@@ -4907,7 +4912,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>132</v>
       </c>
@@ -4931,7 +4936,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>135</v>
       </c>
@@ -4955,7 +4960,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>137</v>
       </c>
@@ -4981,7 +4986,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>139</v>
       </c>
@@ -5007,7 +5012,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>141</v>
       </c>
@@ -5031,7 +5036,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -5057,7 +5062,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>143</v>
       </c>
@@ -5083,7 +5088,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>370</v>
       </c>
@@ -5109,7 +5114,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>374</v>
       </c>
@@ -5135,7 +5140,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -5161,7 +5166,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -5187,7 +5192,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>377</v>
       </c>
@@ -5213,7 +5218,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>4</v>
       </c>
@@ -5239,7 +5244,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>383</v>
       </c>
@@ -5267,7 +5272,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>14</v>
       </c>
@@ -5295,7 +5300,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -5323,7 +5328,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -5335,7 +5340,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -5347,7 +5352,7 @@
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -5360,7 +5365,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -5421,20 +5426,20 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="1" max="3" width="11.5703125" style="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="11.5546875" style="19"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="11.5703125" style="19"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5460,7 +5465,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>489</v>
       </c>
@@ -5486,7 +5491,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>145</v>
       </c>
@@ -5512,7 +5517,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>147</v>
       </c>
@@ -5538,7 +5543,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>149</v>
       </c>
@@ -5564,7 +5569,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>151</v>
       </c>
@@ -5590,7 +5595,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>71</v>
       </c>
@@ -5616,7 +5621,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>152</v>
       </c>
@@ -5642,7 +5647,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>154</v>
       </c>
@@ -5668,7 +5673,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>155</v>
       </c>
@@ -5694,7 +5699,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>156</v>
       </c>
@@ -5744,7 +5749,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>72</v>
       </c>
@@ -5770,7 +5775,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>160</v>
       </c>
@@ -5796,7 +5801,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>161</v>
       </c>
@@ -5846,7 +5851,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>163</v>
       </c>
@@ -5872,7 +5877,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>164</v>
       </c>
@@ -5898,7 +5903,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>165</v>
       </c>
@@ -5924,7 +5929,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>166</v>
       </c>
@@ -5950,7 +5955,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>167</v>
       </c>
@@ -5976,7 +5981,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>169</v>
       </c>
@@ -6002,7 +6007,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>170</v>
       </c>
@@ -6028,7 +6033,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>171</v>
       </c>
@@ -6054,7 +6059,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>172</v>
       </c>
@@ -6080,7 +6085,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>173</v>
       </c>
@@ -6106,7 +6111,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>174</v>
       </c>
@@ -6132,7 +6137,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>175</v>
       </c>
@@ -6158,7 +6163,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>386</v>
       </c>
@@ -6184,7 +6189,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>389</v>
       </c>
@@ -6210,7 +6215,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>391</v>
       </c>
@@ -6236,7 +6241,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>393</v>
       </c>
@@ -6262,7 +6267,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>394</v>
       </c>
@@ -6288,7 +6293,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>397</v>
       </c>
@@ -6314,7 +6319,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>399</v>
       </c>
@@ -6340,7 +6345,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>400</v>
       </c>
@@ -6366,7 +6371,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>403</v>
       </c>
@@ -6392,7 +6397,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>404</v>
       </c>
@@ -6418,7 +6423,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>407</v>
       </c>
@@ -6444,7 +6449,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>409</v>
       </c>
@@ -6470,7 +6475,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>411</v>
       </c>
@@ -6496,7 +6501,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>413</v>
       </c>
@@ -6522,7 +6527,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>416</v>
       </c>
@@ -6548,7 +6553,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>417</v>
       </c>
@@ -6574,7 +6579,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>419</v>
       </c>
@@ -6600,7 +6605,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>423</v>
       </c>
@@ -6626,7 +6631,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>425</v>
       </c>
@@ -6652,7 +6657,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -6662,7 +6667,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -6672,7 +6677,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -6682,7 +6687,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -6692,7 +6697,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -6702,7 +6707,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -6712,7 +6717,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -6722,7 +6727,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -6732,7 +6737,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -6742,7 +6747,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -6752,7 +6757,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -6762,7 +6767,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -6772,7 +6777,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -6782,7 +6787,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -6792,7 +6797,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -6802,7 +6807,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -6812,7 +6817,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -6822,7 +6827,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -6832,7 +6837,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -6842,7 +6847,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -6852,7 +6857,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -6862,7 +6867,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -6872,7 +6877,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -6882,7 +6887,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -6892,7 +6897,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -6902,7 +6907,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -6912,7 +6917,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -6922,7 +6927,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -6932,7 +6937,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -6942,7 +6947,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -6952,7 +6957,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -6962,7 +6967,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -6972,7 +6977,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -6982,7 +6987,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -6992,7 +6997,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -7002,7 +7007,7 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -7012,7 +7017,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -7022,7 +7027,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -7032,7 +7037,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -7042,7 +7047,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -7052,7 +7057,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -7062,7 +7067,7 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -7072,7 +7077,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -7082,7 +7087,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -7162,12 +7167,12 @@
       <selection activeCell="H2" sqref="H2:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="29.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7193,7 +7198,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>327</v>
       </c>
@@ -7219,7 +7224,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>328</v>
       </c>
@@ -7245,7 +7250,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>329</v>
       </c>
@@ -7271,7 +7276,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>330</v>
       </c>
@@ -7297,7 +7302,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>332</v>
       </c>
@@ -7323,7 +7328,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>333</v>
       </c>
@@ -7349,7 +7354,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>335</v>
       </c>
@@ -7375,7 +7380,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>336</v>
       </c>
@@ -7401,7 +7406,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>336</v>
       </c>
@@ -7427,7 +7432,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>339</v>
       </c>
@@ -7453,7 +7458,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>340</v>
       </c>
@@ -7479,7 +7484,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>341</v>
       </c>
@@ -7505,7 +7510,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>342</v>
       </c>
@@ -7531,7 +7536,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>343</v>
       </c>
@@ -7557,7 +7562,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>344</v>
       </c>
@@ -7583,7 +7588,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>347</v>
       </c>
@@ -7609,7 +7614,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>348</v>
       </c>
@@ -7635,7 +7640,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>350</v>
       </c>
@@ -7661,7 +7666,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>351</v>
       </c>
@@ -7687,7 +7692,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
@@ -7713,7 +7718,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>352</v>
       </c>
@@ -7739,7 +7744,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>353</v>
       </c>
@@ -7765,7 +7770,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>355</v>
       </c>
@@ -7791,7 +7796,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>358</v>
       </c>
@@ -7817,7 +7822,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>359</v>
       </c>
@@ -7843,7 +7848,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>361</v>
       </c>
@@ -7869,7 +7874,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>363</v>
       </c>
@@ -7895,7 +7900,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>452</v>
       </c>
@@ -7921,7 +7926,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>454</v>
       </c>
@@ -7947,7 +7952,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>456</v>
       </c>
@@ -7973,7 +7978,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>458</v>
       </c>
@@ -7999,7 +8004,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>460</v>
       </c>
@@ -8025,7 +8030,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>462</v>
       </c>
@@ -8051,7 +8056,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>464</v>
       </c>
@@ -8077,7 +8082,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>466</v>
       </c>
@@ -8103,7 +8108,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>468</v>
       </c>
@@ -8129,7 +8134,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>470</v>
       </c>
@@ -8155,7 +8160,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>472</v>
       </c>
@@ -8181,7 +8186,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>476</v>
       </c>
@@ -8207,7 +8212,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>477</v>
       </c>
@@ -8233,7 +8238,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>480</v>
       </c>
@@ -8259,7 +8264,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>76</v>
       </c>
@@ -8285,7 +8290,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>482</v>
       </c>
@@ -8311,7 +8316,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>484</v>
       </c>
@@ -8337,7 +8342,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>486</v>
       </c>
@@ -8363,7 +8368,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>74</v>
       </c>
@@ -8389,7 +8394,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>488</v>
       </c>
@@ -8415,7 +8420,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>492</v>
       </c>
@@ -8441,7 +8446,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -8467,7 +8472,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>494</v>
       </c>
@@ -8493,7 +8498,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>496</v>
       </c>
@@ -8519,7 +8524,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>498</v>
       </c>
@@ -8545,7 +8550,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>498</v>
       </c>
@@ -8571,7 +8576,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>501</v>
       </c>
@@ -8597,7 +8602,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>501</v>
       </c>
@@ -8623,7 +8628,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -8633,7 +8638,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -8643,7 +8648,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -8653,7 +8658,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -8663,7 +8668,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -8673,7 +8678,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -8683,7 +8688,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -8693,7 +8698,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -8703,7 +8708,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -8713,7 +8718,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -8723,7 +8728,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -8733,7 +8738,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -8743,7 +8748,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -8753,7 +8758,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -8763,7 +8768,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -8773,7 +8778,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -8783,7 +8788,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -8793,7 +8798,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -8803,7 +8808,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -8813,7 +8818,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -8823,7 +8828,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -8833,7 +8838,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -8843,7 +8848,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -8853,7 +8858,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -8863,7 +8868,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -8873,7 +8878,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -8883,7 +8888,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -8893,7 +8898,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -8903,7 +8908,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -8913,7 +8918,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -8923,7 +8928,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -8933,7 +8938,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -8943,7 +8948,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -8953,7 +8958,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -8963,7 +8968,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -8973,7 +8978,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -8983,7 +8988,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -8993,7 +8998,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -9003,7 +9008,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -9013,7 +9018,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -9023,7 +9028,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -9033,7 +9038,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -9043,7 +9048,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -9053,7 +9058,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -9063,7 +9068,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -9073,7 +9078,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -9083,7 +9088,7 @@
       <c r="G102" s="5"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -9093,7 +9098,7 @@
       <c r="G103" s="5"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -9103,7 +9108,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -9113,7 +9118,7 @@
       <c r="G105" s="5"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -9123,7 +9128,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -9133,7 +9138,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -9143,7 +9148,7 @@
       <c r="G108" s="5"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -9153,7 +9158,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -9163,7 +9168,7 @@
       <c r="G110" s="5"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -9173,7 +9178,7 @@
       <c r="G111" s="5"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -9183,7 +9188,7 @@
       <c r="G112" s="5"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -9193,7 +9198,7 @@
       <c r="G113" s="5"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -9203,7 +9208,7 @@
       <c r="G114" s="5"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -9213,7 +9218,7 @@
       <c r="G115" s="5"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -9223,7 +9228,7 @@
       <c r="G116" s="5"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -9233,7 +9238,7 @@
       <c r="G117" s="5"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -9243,7 +9248,7 @@
       <c r="G118" s="5"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -9253,7 +9258,7 @@
       <c r="G119" s="5"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -9263,7 +9268,7 @@
       <c r="G120" s="5"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -9273,7 +9278,7 @@
       <c r="G121" s="5"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -9283,7 +9288,7 @@
       <c r="G122" s="5"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -9293,7 +9298,7 @@
       <c r="G123" s="5"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -9303,7 +9308,7 @@
       <c r="G124" s="5"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -9313,7 +9318,7 @@
       <c r="G125" s="5"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -9323,7 +9328,7 @@
       <c r="G126" s="5"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -9333,7 +9338,7 @@
       <c r="G127" s="5"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -9343,7 +9348,7 @@
       <c r="G128" s="5"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -9353,7 +9358,7 @@
       <c r="G129" s="5"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -9363,7 +9368,7 @@
       <c r="G130" s="5"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -9373,7 +9378,7 @@
       <c r="G131" s="5"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -9383,7 +9388,7 @@
       <c r="G132" s="5"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -9466,9 +9471,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9494,7 +9499,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>502</v>
       </c>
@@ -9520,7 +9525,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>503</v>
       </c>
@@ -9546,7 +9551,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>504</v>
       </c>
@@ -9572,7 +9577,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>505</v>
       </c>
@@ -9598,7 +9603,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>506</v>
       </c>
@@ -9624,7 +9629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>507</v>
       </c>
@@ -9650,7 +9655,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>508</v>
       </c>
@@ -9676,7 +9681,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -9686,7 +9691,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -9696,7 +9701,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -9706,7 +9711,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -9716,7 +9721,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -9726,7 +9731,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -9736,7 +9741,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -9768,29 +9773,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>364</v>
       </c>
